--- a/data/prosthesis_measurements.xlsx
+++ b/data/prosthesis_measurements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t xml:space="preserve">Prosthesis</t>
   </si>
@@ -162,16 +162,52 @@
 0.13 middle</t>
   </si>
   <si>
-    <t xml:space="preserve">Averagre Torque
+    <t xml:space="preserve">Average Torque
 (Nm)</t>
   </si>
   <si>
-    <t xml:space="preserve">Averagre Angular Velocity
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Angular Velocity
 Min (rad/s)</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Averagre Angular Velocity
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Angular Velocity
 Max (rad/s)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Power Min (W)</t>
@@ -203,6 +239,28 @@
 (Nm)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Torque
+(Nm)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">With gravity</t>
   </si>
   <si>
@@ -223,7 +281,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -266,6 +324,12 @@
       <name val="Docs-Roboto"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -363,7 +427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -488,6 +552,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -588,10 +656,10 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.44"/>
@@ -603,7 +671,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="17.13"/>
   </cols>
   <sheetData>
@@ -1827,10 +1895,10 @@
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1863,14 +1931,14 @@
       <c r="Y32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="n">
+      <c r="A33" s="32" t="n">
         <f aca="false">AVERAGE(E36:E40,E42:E48)</f>
         <v>1.082521903</v>
       </c>
-      <c r="B33" s="32" t="n">
+      <c r="B33" s="33" t="n">
         <v>-2.41290426527253</v>
       </c>
-      <c r="C33" s="32" t="n">
+      <c r="C33" s="33" t="n">
         <v>2.46236421115212</v>
       </c>
       <c r="D33" s="24" t="n">
@@ -1967,14 +2035,14 @@
       <c r="Y35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="n">
+      <c r="A36" s="34" t="n">
         <v>1353.60000000003</v>
       </c>
-      <c r="B36" s="33" t="n">
+      <c r="B36" s="34" t="n">
         <f aca="false">A36*2*PI()/360</f>
         <v>23.6247767549958</v>
       </c>
-      <c r="C36" s="33" t="n">
+      <c r="C36" s="34" t="n">
         <f aca="false">B36*$J$26</f>
         <v>5.64082242719696</v>
       </c>
@@ -2008,14 +2076,14 @@
       <c r="Y36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="33" t="n">
+      <c r="A37" s="34" t="n">
         <v>1440.00000000003</v>
       </c>
-      <c r="B37" s="33" t="n">
+      <c r="B37" s="34" t="n">
         <f aca="false">A37*2*PI()/360</f>
         <v>25.1327412287189</v>
       </c>
-      <c r="C37" s="33" t="n">
+      <c r="C37" s="34" t="n">
         <f aca="false">B37*$J$26</f>
         <v>6.00087492254996</v>
       </c>
@@ -2049,14 +2117,14 @@
       <c r="Y37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="33" t="n">
+      <c r="A38" s="34" t="n">
         <v>1411.2</v>
       </c>
-      <c r="B38" s="33" t="n">
+      <c r="B38" s="34" t="n">
         <f aca="false">A38*2*PI()/360</f>
         <v>24.630086404144</v>
       </c>
-      <c r="C38" s="33" t="n">
+      <c r="C38" s="34" t="n">
         <f aca="false">B38*$J$26</f>
         <v>5.88085742409883</v>
       </c>
@@ -2090,14 +2158,14 @@
       <c r="Y38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="33" t="n">
+      <c r="A39" s="34" t="n">
         <v>1367.99999999994</v>
       </c>
-      <c r="B39" s="33" t="n">
+      <c r="B39" s="34" t="n">
         <f aca="false">A39*2*PI()/360</f>
         <v>23.8761041672814</v>
       </c>
-      <c r="C39" s="33" t="n">
+      <c r="C39" s="34" t="n">
         <f aca="false">B39*$J$26</f>
         <v>5.70083117642209</v>
       </c>
@@ -2131,14 +2199,14 @@
       <c r="Y39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="n">
+      <c r="A40" s="34" t="n">
         <v>1108.80000000003</v>
       </c>
-      <c r="B40" s="33" t="n">
+      <c r="B40" s="34" t="n">
         <f aca="false">A40*2*PI()/360</f>
         <v>19.3522107461137</v>
       </c>
-      <c r="C40" s="33" t="n">
+      <c r="C40" s="34" t="n">
         <f aca="false">B40*$J$26</f>
         <v>4.62067369036349</v>
       </c>
@@ -2172,14 +2240,14 @@
       <c r="Y40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="33" t="n">
+      <c r="A41" s="34" t="n">
         <v>1987.19999999991</v>
       </c>
-      <c r="B41" s="33" t="n">
+      <c r="B41" s="34" t="n">
         <f aca="false">A41*2*PI()/360</f>
         <v>34.6831828956297</v>
       </c>
-      <c r="C41" s="33" t="n">
+      <c r="C41" s="34" t="n">
         <f aca="false">B41*$J$26</f>
         <v>8.28120739311839</v>
       </c>
@@ -2213,14 +2281,14 @@
       <c r="Y41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="n">
+      <c r="A42" s="34" t="n">
         <v>1612.79999999995</v>
       </c>
-      <c r="B42" s="33" t="n">
+      <c r="B42" s="34" t="n">
         <f aca="false">A42*2*PI()/360</f>
         <v>28.1486701761637</v>
       </c>
-      <c r="C42" s="33" t="n">
+      <c r="C42" s="34" t="n">
         <f aca="false">B42*$J$26</f>
         <v>6.7209799132556</v>
       </c>
@@ -2254,14 +2322,14 @@
       <c r="Y42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33" t="n">
+      <c r="A43" s="34" t="n">
         <v>1511.99999999988</v>
       </c>
-      <c r="B43" s="33" t="n">
+      <c r="B43" s="34" t="n">
         <f aca="false">A43*2*PI()/360</f>
         <v>26.3893782901522</v>
       </c>
-      <c r="C43" s="33" t="n">
+      <c r="C43" s="34" t="n">
         <f aca="false">B43*$J$26</f>
         <v>6.30091866867682</v>
       </c>
@@ -2295,14 +2363,14 @@
       <c r="Y43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="33" t="n">
+      <c r="A44" s="34" t="n">
         <v>1555.20000000004</v>
       </c>
-      <c r="B44" s="33" t="n">
+      <c r="B44" s="34" t="n">
         <f aca="false">A44*2*PI()/360</f>
         <v>27.1433605270165</v>
       </c>
-      <c r="C44" s="33" t="n">
+      <c r="C44" s="34" t="n">
         <f aca="false">B44*$J$26</f>
         <v>6.48094491635398</v>
       </c>
@@ -2336,14 +2404,14 @@
       <c r="Y44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="33" t="n">
+      <c r="A45" s="34" t="n">
         <v>1598.40000000007</v>
       </c>
-      <c r="B45" s="33" t="n">
+      <c r="B45" s="34" t="n">
         <f aca="false">A45*2*PI()/360</f>
         <v>27.8973427638786</v>
       </c>
-      <c r="C45" s="33" t="n">
+      <c r="C45" s="34" t="n">
         <f aca="false">B45*$J$26</f>
         <v>6.6609711640306</v>
       </c>
@@ -2377,14 +2445,14 @@
       <c r="Y45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="33" t="n">
+      <c r="A46" s="34" t="n">
         <v>1584</v>
       </c>
-      <c r="B46" s="33" t="n">
+      <c r="B46" s="34" t="n">
         <f aca="false">A46*2*PI()/360</f>
         <v>27.6460153515902</v>
       </c>
-      <c r="C46" s="33" t="n">
+      <c r="C46" s="34" t="n">
         <f aca="false">B46*$J$26</f>
         <v>6.60096241480481</v>
       </c>
@@ -2418,14 +2486,14 @@
       <c r="Y46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="33" t="n">
+      <c r="A47" s="34" t="n">
         <v>1670.40000000001</v>
       </c>
-      <c r="B47" s="33" t="n">
+      <c r="B47" s="34" t="n">
         <f aca="false">A47*2*PI()/360</f>
         <v>29.1539798253135</v>
       </c>
-      <c r="C47" s="33" t="n">
+      <c r="C47" s="34" t="n">
         <f aca="false">B47*$J$26</f>
         <v>6.96101491015785</v>
       </c>
@@ -2459,14 +2527,14 @@
       <c r="Y47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="33" t="n">
+      <c r="A48" s="34" t="n">
         <v>1440.00000000003</v>
       </c>
-      <c r="B48" s="33" t="n">
+      <c r="B48" s="34" t="n">
         <f aca="false">A48*2*PI()/360</f>
         <v>25.1327412287189</v>
       </c>
-      <c r="C48" s="33" t="n">
+      <c r="C48" s="34" t="n">
         <f aca="false">B48*$J$26</f>
         <v>6.00087492254996</v>
       </c>
@@ -2500,9 +2568,9 @@
       <c r="Y48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="n">
         <f aca="false">AVERAGE(E36:E48)</f>
@@ -2530,9 +2598,9 @@
       <c r="Y49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2557,13 +2625,13 @@
       <c r="Y50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -2573,7 +2641,7 @@
         <v>43</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -2596,14 +2664,14 @@
       <c r="Y51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31" t="n">
+      <c r="A52" s="32" t="n">
         <f aca="false">AVERAGE(E55:E59,E61:E67)</f>
         <v>0.07583580954</v>
       </c>
-      <c r="B52" s="32" t="n">
+      <c r="B52" s="33" t="n">
         <v>-2.41290426527253</v>
       </c>
-      <c r="C52" s="32" t="n">
+      <c r="C52" s="33" t="n">
         <v>2.46236421115212</v>
       </c>
       <c r="D52" s="24" t="n">
@@ -2668,7 +2736,7 @@
     <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
       <c r="B54" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>47</v>
@@ -2677,7 +2745,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -2702,10 +2770,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
-      <c r="B55" s="33" t="n">
+      <c r="B55" s="34" t="n">
         <v>1.34313408387345</v>
       </c>
-      <c r="C55" s="33" t="n">
+      <c r="C55" s="34" t="n">
         <f aca="false">B55*$J$26</f>
         <v>0.320696400292709</v>
       </c>
@@ -2740,10 +2808,10 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
-      <c r="B56" s="33" t="n">
+      <c r="B56" s="34" t="n">
         <v>1.84148089479742</v>
       </c>
-      <c r="C56" s="33" t="n">
+      <c r="C56" s="34" t="n">
         <f aca="false">B56*$J$26</f>
         <v>0.439685286271814</v>
       </c>
@@ -2778,10 +2846,10 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
-      <c r="B57" s="33" t="n">
+      <c r="B57" s="34" t="n">
         <v>2.61372376835701</v>
       </c>
-      <c r="C57" s="33" t="n">
+      <c r="C57" s="34" t="n">
         <f aca="false">B57*$J$26</f>
         <v>0.624071575530477</v>
       </c>
@@ -2816,10 +2884,10 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
-      <c r="B58" s="33" t="n">
+      <c r="B58" s="34" t="n">
         <v>0.923656635791931</v>
       </c>
-      <c r="C58" s="33" t="n">
+      <c r="C58" s="34" t="n">
         <f aca="false">B58*$J$26</f>
         <v>0.220538933351091</v>
       </c>
@@ -2854,10 +2922,10 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
-      <c r="B59" s="33" t="n">
+      <c r="B59" s="34" t="n">
         <v>-1.20067555713798</v>
       </c>
-      <c r="C59" s="33" t="n">
+      <c r="C59" s="34" t="n">
         <f aca="false">B59*$J$26</f>
         <v>-0.286681972944313</v>
       </c>
@@ -2892,10 +2960,10 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
-      <c r="B60" s="33" t="n">
+      <c r="B60" s="34" t="n">
         <v>5.80542665415619</v>
       </c>
-      <c r="C60" s="33" t="n">
+      <c r="C60" s="34" t="n">
         <f aca="false">B60*$J$26</f>
         <v>1.38614562202313</v>
       </c>
@@ -2930,10 +2998,10 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
-      <c r="B61" s="33" t="n">
+      <c r="B61" s="34" t="n">
         <v>2.59524638907239</v>
       </c>
-      <c r="C61" s="33" t="n">
+      <c r="C61" s="34" t="n">
         <f aca="false">B61*$J$26</f>
         <v>0.619659782922004</v>
       </c>
@@ -2968,10 +3036,10 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
-      <c r="B62" s="33" t="n">
+      <c r="B62" s="34" t="n">
         <v>1.85112299927451</v>
       </c>
-      <c r="C62" s="33" t="n">
+      <c r="C62" s="34" t="n">
         <f aca="false">B62*$J$26</f>
         <v>0.441987504817361</v>
       </c>
@@ -3006,10 +3074,10 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
-      <c r="B63" s="33" t="n">
+      <c r="B63" s="34" t="n">
         <v>2.19460032780388</v>
       </c>
-      <c r="C63" s="33" t="n">
+      <c r="C63" s="34" t="n">
         <f aca="false">B63*$J$26</f>
         <v>0.523998633984643</v>
       </c>
@@ -3044,10 +3112,10 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
-      <c r="B64" s="33" t="n">
+      <c r="B64" s="34" t="n">
         <v>2.50401635641544</v>
       </c>
-      <c r="C64" s="33" t="n">
+      <c r="C64" s="34" t="n">
         <f aca="false">B64*$J$26</f>
         <v>0.597877041032753</v>
       </c>
@@ -3082,10 +3150,10 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
-      <c r="B65" s="33" t="n">
+      <c r="B65" s="34" t="n">
         <v>2.38256273230782</v>
       </c>
-      <c r="C65" s="33" t="n">
+      <c r="C65" s="34" t="n">
         <f aca="false">B65*$J$26</f>
         <v>0.568877896031913</v>
       </c>
@@ -3120,10 +3188,10 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
-      <c r="B66" s="33" t="n">
+      <c r="B66" s="34" t="n">
         <v>3.14675474755369</v>
       </c>
-      <c r="C66" s="33" t="n">
+      <c r="C66" s="34" t="n">
         <f aca="false">B66*$J$26</f>
         <v>0.751341904178453</v>
       </c>
@@ -3158,10 +3226,10 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
-      <c r="B67" s="33" t="n">
+      <c r="B67" s="34" t="n">
         <v>1.39016747423038</v>
       </c>
-      <c r="C67" s="33" t="n">
+      <c r="C67" s="34" t="n">
         <f aca="false">B67*$J$26</f>
         <v>0.331926432470532</v>
       </c>
@@ -3195,9 +3263,9 @@
       <c r="Y67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="n">
         <f aca="false">AVERAGE(E55:E67)</f>
